--- a/xlsx/基督新教_intext.xlsx
+++ b/xlsx/基督新教_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1185">
   <si>
     <t>基督新教</t>
   </si>
@@ -29,7 +29,7 @@
     <t>西方基督教</t>
   </si>
   <si>
-    <t>政策_政策_美國_基督新教</t>
+    <t>政策_政策_美国_基督新教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%95%99%E6%B4%BE%E5%88%97%E8%A1%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%BA%E9%86%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>大覺醒運動</t>
+    <t>大觉醒运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_Protestantism</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E6%95%99%E6%9C%83%E5%90%88%E4%B8%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>普世教會合一運動</t>
+    <t>普世教会合一运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%A9%E8%87%A8%E5%AE%89%E6%81%AF%E6%97%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>基督復臨安息日會</t>
+    <t>基督复临安息日会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E6%B4%97%E7%A4%BC%E6%B4%BE</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B8%E6%AD%A3%E5%AE%97</t>
   </si>
   <si>
-    <t>歸正宗</t>
+    <t>归正宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E5%AE%97</t>
   </si>
   <si>
-    <t>信義宗</t>
+    <t>信义宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E9%81%93%E5%AE%97</t>
@@ -131,37 +131,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五旬節運動</t>
+    <t>五旬节运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>福音主義</t>
+    <t>福音主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E6%81%A9%E6%B4%BE</t>
   </si>
   <si>
-    <t>靈恩派</t>
+    <t>灵恩派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%9D%88%E6%81%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>新靈恩運動</t>
+    <t>新灵恩运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%AE%97%E6%B4%BE%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>非宗派教會</t>
+    <t>非宗派教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>家庭教會</t>
+    <t>家庭教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬丁·路德</t>
+    <t>马丁·路德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8A%A0%E5%B0%94%E6%96%87</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E9%81%8B%E7%90%86</t>
   </si>
   <si>
-    <t>慈運理</t>
+    <t>慈运理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%B4%97%E6%B4%BE</t>
@@ -197,31 +197,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
+    <t>正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E4%BF%A1%E7%A8%B1%E7%BE%A9</t>
   </si>
   <si>
-    <t>因信稱義</t>
+    <t>因信称义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%BE%92%E7%9A%86%E7%A5%AD%E5%8F%B8</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Diet_of_Speyer_(1529)</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>薩克森</t>
+    <t>萨克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E5%B8%9D%E4%BE%AF</t>
   </si>
   <si>
-    <t>選帝侯</t>
+    <t>选帝侯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E8%87%AA%E7%94%B1%E5%9F%8E%E5%B8%82</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94</t>
   </si>
   <si>
-    <t>三位一體</t>
+    <t>三位一体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%BD%AA</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E7%9A%84%E7%A5%AD%E5%8F%B8%E8%81%B7%E5%88%86</t>
   </si>
   <si>
-    <t>普遍的祭司職分</t>
+    <t>普遍的祭司职分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>聖統制</t>
+    <t>圣统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%82%B3</t>
   </si>
   <si>
-    <t>聖傳</t>
+    <t>圣传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%B8%AA%E5%94%AF%E7%8B%AC</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%E8%80%80</t>
   </si>
   <si>
-    <t>榮耀</t>
+    <t>荣耀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%8B%AC%E5%9B%A0%E4%BF%A1%E7%A7%B0%E4%B9%89</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3</t>
   </si>
   <si>
-    <t>耶穌受難</t>
+    <t>耶稣受难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%85%B8</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%84%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>新約聖經</t>
+    <t>新约圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97_(%E4%BD%BF%E5%BE%92)</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%BC%97%E6%89%80%E6%9B%B8</t>
   </si>
   <si>
-    <t>以弗所書</t>
+    <t>以弗所书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AA_(%E5%AE%97%E6%95%99)</t>
@@ -407,37 +407,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%9B%B8</t>
   </si>
   <si>
-    <t>羅馬書</t>
+    <t>罗马书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88</t>
   </si>
   <si>
-    <t>聖靈</t>
+    <t>圣灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%91%A9%E5%A4%AA%E5%BE%8C%E6%9B%B8</t>
   </si>
   <si>
-    <t>提摩太後書</t>
+    <t>提摩太后书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E5%91%BD%E8%A8%98</t>
   </si>
   <si>
-    <t>申命記</t>
+    <t>申命记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E4%BA%8C%E6%9B%B8</t>
   </si>
   <si>
-    <t>約翰二書</t>
+    <t>约翰二书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E5%89%8D%E6%9B%B8</t>
   </si>
   <si>
-    <t>彼得前書</t>
+    <t>彼得前书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%AD%E5%8F%B8</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖禮</t>
+    <t>圣礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E7%A6%AE</t>
   </si>
   <si>
-    <t>洗禮</t>
+    <t>洗礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A4%90</t>
   </si>
   <si>
-    <t>聖餐</t>
+    <t>圣餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3</t>
@@ -515,9 +515,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
   </si>
   <si>
-    <t>圣经</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E7%BA%A6%E5%9C%A3%E7%BB%8F</t>
   </si>
   <si>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%B6%93</t>
   </si>
   <si>
-    <t>信經</t>
+    <t>信经</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_Covenant</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教神學</t>
+    <t>基督教神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%9A%84%E7%A5%9E</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%88%B6</t>
   </si>
   <si>
-    <t>聖父</t>
+    <t>圣父</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E4%B9%8B%E5%AD%90</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%95%91%E8%B4%96%E8%AB%96</t>
   </si>
   <si>
-    <t>基督教救贖論</t>
+    <t>基督教救赎论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8E%86%E5%8F%B2</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9%E4%BA%9E_(%E8%80%B6%E7%A9%8C%E7%9A%84%E6%AF%8D%E8%A6%AA)</t>
   </si>
   <si>
-    <t>馬利亞 (耶穌的母親)</t>
+    <t>马利亚 (耶稣的母亲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6_(%E5%9F%BA%E7%9D%A3%E6%95%99%E6%AD%B7%E5%8F%B2)</t>
   </si>
   <si>
-    <t>教父 (基督教歷史)</t>
+    <t>教父 (基督教历史)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%9C%9F%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>大公會議</t>
+    <t>大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%A5%BF%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>東西教會大分裂</t>
+    <t>东西教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E5%86%9B%E4%B8%9C%E5%BE%81</t>
@@ -689,13 +686,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>马丁·路德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>基督教藝術</t>
+    <t>基督教艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E4%BC%9A%E5%B9%B4%E5%8E%86</t>
@@ -713,9 +707,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E6%95%99%E4%BC%9A%E5%90%88%E4%B8%80%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
-    <t>普世教会合一运动</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A4%BC%E6%8B%9C%E4%BB%AA%E5%BC%8F</t>
   </si>
   <si>
@@ -761,49 +752,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E5%AE%97</t>
   </si>
   <si>
-    <t>聖公宗</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>加爾文主義</t>
+    <t>加尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
   </si>
   <si>
-    <t>天主教会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%BD%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>聖潔運動</t>
+    <t>圣洁运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東方基督教</t>
+    <t>东方基督教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%84%80%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東儀天主教會</t>
+    <t>东仪天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E7%B5%B1%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方正統教會</t>
+    <t>东方正统教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%BA%9E%E8%BF%B0%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方亞述教會</t>
+    <t>东方亚述教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -815,13 +800,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BA%8B</t>
   </si>
   <si>
-    <t>聖事</t>
+    <t>圣事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A4%AA%E7%A6%8F%E9%9F%B3</t>
   </si>
   <si>
-    <t>馬太福音</t>
+    <t>马太福音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%8A%A0%E7%A6%8F%E9%9F%B3</t>
@@ -839,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%94%BF%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>教政體制</t>
+    <t>教政体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99</t>
@@ -869,25 +854,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9F%BA%E7%9D%A3%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>台灣基督長老教會</t>
+    <t>台湾基督长老教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>牧師</t>
+    <t>牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E7%9C%BE%E5%88%B6</t>
   </si>
   <si>
-    <t>會眾制</t>
+    <t>会众制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>浸信會</t>
+    <t>浸信会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86%E4%BC%9A</t>
@@ -899,13 +884,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%8F%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>神召會</t>
+    <t>神召会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E9%87%8C%E5%A4%AB</t>
@@ -917,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>波希米亞</t>
+    <t>波希米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AC%C2%B7%E8%83%A1%E6%96%AF</t>
@@ -929,19 +914,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>宗教改革運動</t>
+    <t>宗教改革运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%86%85%E7%93%A6</t>
@@ -953,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>加爾文</t>
+    <t>加尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%81%96%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>英國聖公會</t>
+    <t>英国圣公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%88%98%E4%BA%89</t>
@@ -971,19 +956,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%A0%BC%E6%96%AF%E5%A0%A1%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>奧格斯堡和約</t>
+    <t>奥格斯堡和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E4%BC%90%E5%88%A9%E4%BA%9E%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>威斯特伐利亞和約</t>
+    <t>威斯特伐利亚和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -995,25 +980,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>神學家</t>
+    <t>神学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92%E9%9D%A9%E5%91%BD</t>
@@ -1025,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%9C%83</t>
   </si>
   <si>
-    <t>長老會</t>
+    <t>长老会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%AA%BC%E6%9C%83</t>
   </si>
   <si>
-    <t>公誼會</t>
+    <t>公谊会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1061,33 +1046,27 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E8%A7%80</t>
   </si>
   <si>
-    <t>唯物觀</t>
+    <t>唯物观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教社會主義</t>
+    <t>基督教社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>自由主義神學</t>
+    <t>自由主义神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E4%BC%9A</t>
   </si>
   <si>
-    <t>浸信会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E8%80%81%E4%BC%9A</t>
   </si>
   <si>
-    <t>长老会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%9F%BA%E8%A6%81%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -1097,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E6%81%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>靈恩運動</t>
+    <t>灵恩运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%94%E6%95%AC%E4%B8%BB%E4%B9%89</t>
@@ -1115,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -1127,19 +1106,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E5%85%B1%E5%92%8C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>神權共和時期</t>
+    <t>神权共和时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6</t>
   </si>
   <si>
-    <t>日內瓦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A</t>
   </si>
   <si>
-    <t>神權</t>
+    <t>神权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -1163,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
@@ -1181,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E</t>
   </si>
   <si>
-    <t>馬薩諸塞</t>
+    <t>马萨诸塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8F%B3%E6%B4%BE</t>
@@ -1193,13 +1169,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E7%A6%BB</t>
   </si>
   <si>
-    <t>政教分离</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>英國君主</t>
+    <t>英国君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -1217,25 +1190,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8D%97%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美南浸信會</t>
+    <t>美南浸信会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8C%97%E6%B5%B8%E7%A6%AE%E6%9C%83</t>
   </si>
   <si>
-    <t>美北浸禮會</t>
+    <t>美北浸礼会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%AE%97</t>
@@ -1247,9 +1220,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%B5%E6%81%A9%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
-    <t>灵恩运动</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
   </si>
   <si>
@@ -1283,19 +1253,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>天主教百科全書</t>
+    <t>天主教百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%87%AA%E7%AB%8B%E6%95%99%E4%BC%9A</t>
@@ -1319,19 +1289,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF%E8%A6%8B%E8%AD%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>耶和華見證人</t>
+    <t>耶和华见证人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%96%80%E6%95%99</t>
   </si>
   <si>
-    <t>摩門教</t>
+    <t>摩门教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>大公教會</t>
+    <t>大公教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99</t>
@@ -1343,13 +1313,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E5%9B%9B%E7%89%B9%E5%BE%B5</t>
   </si>
   <si>
-    <t>教會四特徵</t>
+    <t>教会四特征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8D%87%E5%A4%A9</t>
   </si>
   <si>
-    <t>耶穌升天</t>
+    <t>耶稣升天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E7%A6%8F%E9%9F%B3%E4%B9%A6</t>
@@ -1361,15 +1331,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E4%BD%93</t>
   </si>
   <si>
-    <t>三位一体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%BE%A8%E6%83%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教辨惑學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E4%BC%9A%E5%AD%A6</t>
   </si>
   <si>
@@ -1379,19 +1343,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8B%A5%E7%91%9F</t>
   </si>
   <si>
-    <t>聖若瑟</t>
+    <t>圣若瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E7%B5%B1%E7%B7%92</t>
   </si>
   <si>
-    <t>使徒統緒</t>
+    <t>使徒统绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E7%89%A7%E9%A6%96%E5%8D%80</t>
   </si>
   <si>
-    <t>五大牧首區</t>
+    <t>五大牧首区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E4%BC%A0%E6%92%AD%E5%B9%B4%E8%A1%A8</t>
@@ -1409,13 +1373,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B4%8D%E7%88%B5%C2%B7%E7%BE%85%E8%80%80%E6%8B%89</t>
   </si>
   <si>
-    <t>依納爵·羅耀拉</t>
+    <t>依纳爵·罗耀拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E5%96%80%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>讓·喀爾文</t>
+    <t>让·喀尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E6%AD%A3%E6%95%99%E4%BC%9A%E7%9A%84%E6%95%99%E6%B4%BE%E5%88%86%E8%A3%82</t>
@@ -1427,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E7%99%BC%E8%AA%B2%E7%A8%8B</t>
   </si>
   <si>
-    <t>啟發課程</t>
+    <t>启发课程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Independent_Catholic_churches</t>
@@ -1439,13 +1403,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>舊天主教會</t>
+    <t>旧天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%88%BE%E9%A6%AC%E7%88%BE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>帕爾馬爾天主教教會</t>
+    <t>帕尔马尔天主教教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A9%E4%B8%BB%E6%95%99%E7%88%B1%E5%9B%BD%E4%BC%9A</t>
@@ -1475,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B6%E6%96%AF%E8%84%AB%E9%87%8C%E6%B4%BE%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>聶斯脫里派教會</t>
+    <t>聂斯脱里派教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E6%95%99</t>
@@ -1499,13 +1463,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E5%AE%97</t>
   </si>
   <si>
-    <t>長老宗</t>
+    <t>长老宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E8%AB%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>門諾會</t>
+    <t>门诺会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B1%B3%E4%BB%80%E4%BA%BA</t>
@@ -1523,13 +1487,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B0%91%E5%BF%B5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>阿民念主義</t>
+    <t>阿民念主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E6%92%92%E5%8B%92%E4%BA%BA%E6%9C%83</t>
   </si>
   <si>
-    <t>拿撒勒人會</t>
+    <t>拿撒勒人会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF%E5%BC%9F%E5%85%84%E4%BC%9A</t>
@@ -1541,13 +1505,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%A0%BC%E6%9C%83</t>
   </si>
   <si>
-    <t>貴格會</t>
+    <t>贵格会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%AE%A3%E9%81%93%E6%9C%83</t>
   </si>
   <si>
-    <t>基督教宣道會</t>
+    <t>基督教宣道会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%95%99%E4%BC%9A</t>
@@ -1559,49 +1523,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>召會</t>
+    <t>召会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A2%E5%BE%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>恢復運動</t>
+    <t>恢复运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94%E6%B4%BE</t>
   </si>
   <si>
-    <t>非三位一體派</t>
+    <t>非三位一体派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%9F%E8%81%96%E5%BE%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>後期聖徒運動</t>
+    <t>后期圣徒运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BC%9F%E5%85%84%E6%9C%83</t>
   </si>
   <si>
-    <t>基督弟兄會</t>
+    <t>基督弟兄会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E8%80%B6%E7%A9%8C%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>真耶穌教會</t>
+    <t>真耶稣教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E7%A7%91%E5%AD%B8%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>基督科學教會</t>
+    <t>基督科学教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬丁主義</t>
+    <t>马丁主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Messianic_Judaism</t>
@@ -1619,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%91%E4%B8%96%E8%BB%8D</t>
   </si>
   <si>
-    <t>救世軍</t>
+    <t>救世军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jesuism</t>
@@ -1637,15 +1601,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>美國原住民教會</t>
+    <t>美国原住民教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A6%AE%E6%8B%9C%E5%84%80%E5%BC%8F</t>
   </si>
   <si>
-    <t>基督教禮拜儀式</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%88%E7%A5%B7</t>
   </si>
   <si>
@@ -1655,31 +1616,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E7%A7%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教神秘主義</t>
+    <t>基督教神秘主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%82%B3%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
-    <t>密傳基督教</t>
+    <t>密传基督教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%96%AF%E5%BA%95%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>諾斯底主義</t>
+    <t>诺斯底主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E5%B9%B4%E6%9B%86</t>
   </si>
   <si>
-    <t>教會年曆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%A6%AE</t>
   </si>
   <si>
-    <t>亞歷山大禮</t>
+    <t>亚历山大礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Antiochene_Rite</t>
@@ -1691,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A6%AE</t>
   </si>
   <si>
-    <t>亞美尼亞禮</t>
+    <t>亚美尼亚礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E7%A4%BC</t>
@@ -1709,25 +1667,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%A6%AE%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>拉丁禮教會</t>
+    <t>拉丁礼教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%AB%8B%E7%94%98%E7%BF%92%E4%BE%8B</t>
   </si>
   <si>
-    <t>安立甘習例</t>
+    <t>安立甘习例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%A6%AE</t>
   </si>
   <si>
-    <t>羅馬禮</t>
+    <t>罗马礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%9A%E7%A6%AE</t>
   </si>
   <si>
-    <t>安博禮</t>
+    <t>安博礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sarum_Rite</t>
@@ -1739,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E9%98%BF%E6%8B%89%E4%BC%AF%E7%A6%AE</t>
   </si>
   <si>
-    <t>摩爾阿拉伯禮</t>
+    <t>摩尔阿拉伯礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Church_architecture</t>
@@ -1787,19 +1745,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%B8%BD%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>大總主教</t>
+    <t>大总主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E6%A9%9F</t>
   </si>
   <si>
-    <t>樞機</t>
+    <t>枢机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>總主教</t>
+    <t>总主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%B8%BB%E6%95%99</t>
@@ -1811,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E4%BA%8B</t>
   </si>
   <si>
-    <t>執事</t>
+    <t>执事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%95%99%E5%A3%AB</t>
@@ -1835,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E7%A5%AD</t>
   </si>
   <si>
-    <t>輔祭</t>
+    <t>辅祭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E4%BF%A1%E5%BE%92</t>
@@ -1859,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%E8%AB%B8%E6%95%99</t>
   </si>
   <si>
-    <t>亞伯拉罕諸教</t>
+    <t>亚伯拉罕诸教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99</t>
@@ -1871,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教保守派</t>
+    <t>犹太教保守派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Haymanot</t>
@@ -1889,33 +1847,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%AD%A3%E7%B5%B1%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教正統派</t>
+    <t>犹太教正统派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%94%B9%E9%9D%A9%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教改革派</t>
+    <t>犹太教改革派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
   </si>
   <si>
-    <t>旧天主教会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E5%8D%8E%E8%A7%81%E8%AF%81%E4%BA%BA</t>
   </si>
   <si>
-    <t>耶和华见证人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%9C%9F%E5%9C%A3%E5%BE%92%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
-    <t>后期圣徒运动</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E9%97%A8%E6%95%99</t>
   </si>
   <si>
@@ -1925,13 +1874,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
+    <t>逊尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E5%8F%B6%E6%B4%BE</t>
@@ -1961,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%8D%A8%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>唯獨古蘭經</t>
+    <t>唯独古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E6%95%99</t>
@@ -1991,13 +1940,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E9%81%94%E5%AE%89%E6%95%99</t>
   </si>
   <si>
-    <t>曼達安教</t>
+    <t>曼达安教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>撒馬利亞人</t>
+    <t>撒马利亚人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indian_religions</t>
@@ -2033,19 +1982,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%85%8B%E9%81%94%E6%95%99</t>
   </si>
   <si>
-    <t>沙克達教</t>
+    <t>沙克达教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%95%E5%A9%86%E6%95%99</t>
   </si>
   <si>
-    <t>濕婆教</t>
+    <t>湿婆教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BA%9E%E7%93%A6%E8%8A%9D</t>
   </si>
   <si>
-    <t>阿亞瓦芝</t>
+    <t>阿亚瓦芝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Smartism</t>
@@ -2177,19 +2126,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BE%B7%E9%AD%AF%E4%BC%8A%E4%BF%A1%E4%BB%B0</t>
   </si>
   <si>
-    <t>新德魯伊信仰</t>
+    <t>新德鲁伊信仰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E6%96%B0%E7%95%B0%E6%95%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>日耳曼新異教運動</t>
+    <t>日耳曼新异教运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%A4%9A%E7%A5%9E%E6%95%99_(%E5%BE%A9%E8%88%88)</t>
   </si>
   <si>
-    <t>希臘多神教 (復興)</t>
+    <t>希腊多神教 (复兴)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italo-Roman_neopaganism</t>
@@ -2291,7 +2240,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A7%98%E5%AF%86%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>中國秘密宗教</t>
+    <t>中国秘密宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%95%99</t>
@@ -2345,7 +2294,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%B7%AB%E6%95%99</t>
   </si>
   <si>
-    <t>朝鮮巫教</t>
+    <t>朝鲜巫教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8F%B0%E6%95%99</t>
@@ -2387,7 +2336,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B7%B4%E6%95%99</t>
   </si>
   <si>
-    <t>東巴教</t>
+    <t>东巴教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ua_Dab</t>
@@ -2747,25 +2696,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E6%83%B3%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>新思想運動</t>
+    <t>新思想运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%88%BE%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>雷爾運動</t>
+    <t>雷尔运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E9%81%94%E5%9F%BA</t>
   </si>
   <si>
-    <t>山達基</t>
+    <t>山达基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E7%91%AA</t>
   </si>
   <si>
-    <t>泰勒瑪</t>
+    <t>泰勒玛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%A5%9E%E6%99%AE%E6%95%91%E6%B4%BE</t>
@@ -2861,9 +2810,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%96%AF%E5%BA%95%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>诺斯底主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%BC%E6%95%99</t>
   </si>
   <si>
@@ -2921,7 +2867,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>斯拉夫神話</t>
+    <t>斯拉夫神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E6%95%99</t>
@@ -2957,7 +2903,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%B4%E5%B9%BB%E5%8A%91</t>
   </si>
   <si>
-    <t>宗教致幻劑</t>
+    <t>宗教致幻剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%B4%BE</t>
@@ -3011,7 +2957,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%B5%B1_(%E4%BF%A1%E4%BB%B0)</t>
   </si>
   <si>
-    <t>正統 (信仰)</t>
+    <t>正统 (信仰)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orthopraxy</t>
@@ -3029,7 +2975,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E9%AB%94%E9%A9%97</t>
   </si>
   <si>
-    <t>宗教體驗</t>
+    <t>宗教体验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%AA%E5%BC%8F</t>
@@ -3089,7 +3035,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%88%E8%AB%96</t>
   </si>
   <si>
-    <t>泛靈論</t>
+    <t>泛灵论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A5%9E%E8%AE%BA</t>
@@ -3149,13 +3095,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
+    <t>无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世俗主義</t>
+    <t>世俗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%AE%97%E6%95%99</t>
@@ -3173,9 +3119,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
   </si>
   <si>
-    <t>无神论</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%A1%8C%E9%9D%A2%E6%9D%A1%E6%80%AA%E7%89%A9</t>
   </si>
   <si>
@@ -3197,7 +3140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>新無神論</t>
+    <t>新无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BA%E4%B8%96%E8%AE%BA</t>
@@ -3227,7 +3170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>客觀主義</t>
+    <t>客观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Secular_humanism</t>
@@ -3251,7 +3194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%8F%E6%98%8E%E7%B2%89%E7%B4%85%E7%8D%A8%E8%A7%92%E7%8D%B8</t>
   </si>
   <si>
-    <t>透明粉紅獨角獸</t>
+    <t>透明粉红独角兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%AD%A6</t>
@@ -3275,7 +3218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>宗教比較</t>
+    <t>宗教比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%8F%91%E5%B1%95</t>
@@ -3311,7 +3254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -3347,7 +3290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%A6%8F%E9%9F%B3</t>
   </si>
   <si>
-    <t>傳福音</t>
+    <t>传福音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9D%E8%AF%B1%E6%94%B9%E4%BF%A1</t>
@@ -3383,13 +3326,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E6%94%9D</t>
   </si>
   <si>
-    <t>綜攝</t>
+    <t>综摄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%AE%B9</t>
   </si>
   <si>
-    <t>寬容</t>
+    <t>宽容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E4%B8%BB%E4%B9%89</t>
@@ -3401,7 +3344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%B8%8E%E5%B9%B8%E7%A6%8F</t>
@@ -3413,7 +3356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%88%87%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>宗教與同性戀</t>
+    <t>宗教与同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Minority_religion</t>
@@ -3461,7 +3404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
@@ -3509,7 +3452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%87%8D%E5%AE%97%E6%95%99%E8%BA%AB%E4%BB%BD%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>多重宗教身份認同</t>
+    <t>多重宗教身份认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -3581,7 +3524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3599,7 +3542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3611,13 +3554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -6462,7 +6405,7 @@
         <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -6488,10 +6431,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -6546,10 +6489,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -6575,10 +6518,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -6604,10 +6547,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>33</v>
@@ -6633,10 +6576,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -6662,10 +6605,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6691,10 +6634,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>9</v>
@@ -6720,10 +6663,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>81</v>
@@ -6749,10 +6692,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6778,10 +6721,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -6807,10 +6750,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6865,10 +6808,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6894,10 +6837,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6923,10 +6866,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -6952,10 +6895,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6981,10 +6924,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
@@ -7010,10 +6953,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -7039,10 +6982,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -7068,10 +7011,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -7097,10 +7040,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -7155,10 +7098,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
-      </c>
-      <c r="F110" t="s">
-        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -7184,10 +7127,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7213,10 +7156,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
         <v>211</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -7242,10 +7185,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7271,10 +7214,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
         <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7300,10 +7243,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>216</v>
+      </c>
+      <c r="F115" t="s">
         <v>217</v>
-      </c>
-      <c r="F115" t="s">
-        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7329,10 +7272,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
         <v>219</v>
-      </c>
-      <c r="F116" t="s">
-        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -7358,10 +7301,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7387,10 +7330,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="G118" t="n">
         <v>19</v>
@@ -7416,10 +7359,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -7445,10 +7388,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7474,10 +7417,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -7503,10 +7446,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7532,10 +7475,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -7561,10 +7504,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -7590,10 +7533,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -7619,10 +7562,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7648,10 +7591,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7677,10 +7620,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7706,10 +7649,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -7735,10 +7678,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -7764,10 +7707,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -7793,10 +7736,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7851,10 +7794,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -7938,10 +7881,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7967,10 +7910,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7996,10 +7939,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -8025,10 +7968,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8054,10 +7997,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G141" t="n">
         <v>24</v>
@@ -8083,10 +8026,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8112,10 +8055,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -8141,10 +8084,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8170,10 +8113,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8199,10 +8142,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8228,10 +8171,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G147" t="n">
         <v>55</v>
@@ -8257,10 +8200,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G148" t="n">
         <v>8</v>
@@ -8286,10 +8229,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -8315,10 +8258,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>19</v>
@@ -8344,10 +8287,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8373,10 +8316,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -8402,10 +8345,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>6</v>
@@ -8431,10 +8374,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G154" t="n">
         <v>8</v>
@@ -8460,10 +8403,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -8489,10 +8432,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8518,10 +8461,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G157" t="n">
         <v>5</v>
@@ -8547,10 +8490,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8576,10 +8519,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8605,10 +8548,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8634,10 +8577,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8663,10 +8606,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G162" t="n">
         <v>5</v>
@@ -8692,10 +8635,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8721,10 +8664,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8750,10 +8693,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G165" t="n">
         <v>10</v>
@@ -8779,10 +8722,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8808,10 +8751,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8837,10 +8780,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8866,10 +8809,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8895,10 +8838,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8953,10 +8896,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8982,10 +8925,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -9011,10 +8954,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9040,10 +8983,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -9069,10 +9012,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G176" t="n">
         <v>13</v>
@@ -9098,10 +9041,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9127,10 +9070,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -9156,10 +9099,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9185,10 +9128,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G180" t="n">
         <v>4</v>
@@ -9214,10 +9157,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F181" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -9243,10 +9186,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9272,10 +9215,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9301,10 +9244,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9330,10 +9273,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9359,10 +9302,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9388,10 +9331,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F187" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9417,10 +9360,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9446,10 +9389,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9475,10 +9418,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F190" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9504,10 +9447,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9533,10 +9476,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9562,10 +9505,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9591,10 +9534,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -9620,10 +9563,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G195" t="n">
         <v>7</v>
@@ -9649,10 +9592,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9678,10 +9621,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -9707,10 +9650,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -9736,10 +9679,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G199" t="n">
         <v>6</v>
@@ -9765,10 +9708,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9794,10 +9737,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>5</v>
@@ -9823,10 +9766,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9852,10 +9795,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -9881,10 +9824,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9910,10 +9853,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9939,10 +9882,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9968,10 +9911,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9997,10 +9940,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10026,10 +9969,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10055,10 +9998,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10084,10 +10027,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -10113,10 +10056,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10142,10 +10085,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10171,10 +10114,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10200,10 +10143,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F215" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -10258,10 +10201,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -10316,10 +10259,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F219" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10345,10 +10288,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F220" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10374,10 +10317,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10403,10 +10346,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10432,10 +10375,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -10461,10 +10404,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F224" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10490,10 +10433,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F225" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10519,10 +10462,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10548,10 +10491,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10577,10 +10520,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10606,10 +10549,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F229" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10635,10 +10578,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10664,10 +10607,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10693,10 +10636,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10722,10 +10665,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F233" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10751,10 +10694,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10780,10 +10723,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10809,10 +10752,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10838,10 +10781,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G237" t="n">
         <v>11</v>
@@ -10867,10 +10810,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10925,10 +10868,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F240" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10954,10 +10897,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F241" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10983,10 +10926,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>166</v>
+      </c>
+      <c r="F242" t="s">
         <v>167</v>
-      </c>
-      <c r="F242" t="s">
-        <v>168</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11041,10 +10984,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>180</v>
+      </c>
+      <c r="F244" t="s">
         <v>181</v>
-      </c>
-      <c r="F244" t="s">
-        <v>182</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11070,10 +11013,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F245" t="s">
-        <v>448</v>
+        <v>88</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11099,10 +11042,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F246" t="s">
-        <v>450</v>
+        <v>187</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11128,10 +11071,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F247" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11157,10 +11100,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>192</v>
+      </c>
+      <c r="F248" t="s">
         <v>193</v>
-      </c>
-      <c r="F248" t="s">
-        <v>194</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11186,10 +11129,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>200</v>
+      </c>
+      <c r="F249" t="s">
         <v>201</v>
-      </c>
-      <c r="F249" t="s">
-        <v>202</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11215,10 +11158,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F250" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11244,10 +11187,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>202</v>
+      </c>
+      <c r="F251" t="s">
         <v>203</v>
-      </c>
-      <c r="F251" t="s">
-        <v>204</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11273,10 +11216,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>204</v>
+      </c>
+      <c r="F252" t="s">
         <v>205</v>
-      </c>
-      <c r="F252" t="s">
-        <v>206</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11331,10 +11274,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F254" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11360,10 +11303,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F255" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11389,10 +11332,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F256" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11418,10 +11361,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>208</v>
+      </c>
+      <c r="F257" t="s">
         <v>209</v>
-      </c>
-      <c r="F257" t="s">
-        <v>210</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -11447,10 +11390,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F258" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11476,10 +11419,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>210</v>
+      </c>
+      <c r="F259" t="s">
         <v>211</v>
-      </c>
-      <c r="F259" t="s">
-        <v>212</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11505,10 +11448,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>212</v>
+      </c>
+      <c r="F260" t="s">
         <v>213</v>
-      </c>
-      <c r="F260" t="s">
-        <v>214</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11534,10 +11477,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>214</v>
+      </c>
+      <c r="F261" t="s">
         <v>215</v>
-      </c>
-      <c r="F261" t="s">
-        <v>216</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11563,10 +11506,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>216</v>
+      </c>
+      <c r="F262" t="s">
         <v>217</v>
-      </c>
-      <c r="F262" t="s">
-        <v>218</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11592,10 +11535,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>220</v>
+      </c>
+      <c r="F263" t="s">
         <v>221</v>
-      </c>
-      <c r="F263" t="s">
-        <v>222</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11621,10 +11564,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F264" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11650,10 +11593,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F265" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11679,10 +11622,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F266" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11708,10 +11651,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F267" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11795,10 +11738,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F270" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11824,10 +11767,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F271" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11940,10 +11883,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F275" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11969,10 +11912,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F276" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11998,10 +11941,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F277" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12027,10 +11970,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F278" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12056,10 +11999,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F279" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12085,10 +12028,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F280" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12143,10 +12086,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F282" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12172,10 +12115,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F283" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12201,10 +12144,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F284" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12230,10 +12173,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F285" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12259,10 +12202,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F286" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12288,10 +12231,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F287" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12317,10 +12260,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F288" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12346,10 +12289,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F289" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12375,10 +12318,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F290" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -12404,10 +12347,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F291" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12462,10 +12405,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F293" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12491,10 +12434,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F294" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12520,10 +12463,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F295" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12549,10 +12492,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F296" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12578,10 +12521,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F297" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12636,10 +12579,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F299" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12665,10 +12608,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F300" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12694,10 +12637,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F301" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -12723,10 +12666,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F302" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12752,10 +12695,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F303" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12781,10 +12724,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F304" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12810,10 +12753,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F305" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12839,10 +12782,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F306" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12868,10 +12811,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F307" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12897,10 +12840,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F308" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12926,10 +12869,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F309" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12955,10 +12898,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F310" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12984,10 +12927,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F311" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13013,10 +12956,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F312" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13042,10 +12985,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F313" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13071,10 +13014,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F314" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -13100,10 +13043,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F315" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13129,10 +13072,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F316" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13158,10 +13101,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F317" t="s">
-        <v>542</v>
+        <v>231</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -13187,10 +13130,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F318" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13216,10 +13159,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F319" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -13245,10 +13188,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F320" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13274,10 +13217,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F321" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G321" t="n">
         <v>3</v>
@@ -13303,10 +13246,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="F322" t="s">
-        <v>552</v>
+        <v>226</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13332,10 +13275,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F323" t="s">
-        <v>542</v>
+        <v>231</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13361,10 +13304,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F324" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13390,10 +13333,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F325" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13419,10 +13362,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F326" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13448,10 +13391,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F327" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13477,10 +13420,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F328" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13506,10 +13449,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F329" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13535,10 +13478,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F330" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13564,10 +13507,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F331" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13593,10 +13536,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F332" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13622,10 +13565,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F333" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13651,10 +13594,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F334" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13680,10 +13623,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F335" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13709,10 +13652,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F336" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13738,10 +13681,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F337" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13767,10 +13710,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="F338" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13796,10 +13739,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F339" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13825,10 +13768,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F340" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -13854,10 +13797,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F341" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13883,10 +13826,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F342" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13912,10 +13855,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F343" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13941,10 +13884,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F344" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13970,10 +13913,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F345" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14028,10 +13971,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F347" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14057,10 +14000,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F348" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14086,10 +14029,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F349" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -14115,10 +14058,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F350" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -14144,10 +14087,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F351" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14173,10 +14116,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="F352" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14202,10 +14145,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F353" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G353" t="n">
         <v>70</v>
@@ -14231,10 +14174,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F354" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14260,10 +14203,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F355" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -14289,10 +14232,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F356" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14318,10 +14261,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="F357" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G357" t="n">
         <v>4</v>
@@ -14347,10 +14290,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F358" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14376,10 +14319,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F359" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14405,10 +14348,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F360" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14434,10 +14377,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F361" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G361" t="n">
         <v>3</v>
@@ -14463,10 +14406,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F362" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14492,10 +14435,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F363" t="s">
-        <v>628</v>
+        <v>462</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14521,10 +14464,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F364" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14579,10 +14522,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="F366" t="s">
-        <v>630</v>
+        <v>424</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14608,10 +14551,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="F367" t="s">
-        <v>632</v>
+        <v>508</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14637,10 +14580,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="F368" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14666,10 +14609,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="F369" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14695,10 +14638,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="F370" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14724,10 +14667,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="F371" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14753,10 +14696,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="F372" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14782,10 +14725,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="F373" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14811,10 +14754,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="F374" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14840,10 +14783,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="F375" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14869,10 +14812,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="F376" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14898,10 +14841,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="F377" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14927,10 +14870,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="F378" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14956,10 +14899,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="F379" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14985,10 +14928,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="F380" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15014,10 +14957,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F381" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -15043,10 +14986,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="F382" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15072,10 +15015,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="F383" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15101,10 +15044,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F384" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15130,10 +15073,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="F385" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -15159,10 +15102,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="F386" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -15188,10 +15131,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="F387" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15217,10 +15160,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="F388" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15246,10 +15189,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="F389" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15275,10 +15218,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="F390" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15304,10 +15247,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="F391" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15333,10 +15276,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="F392" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G392" t="n">
         <v>5</v>
@@ -15362,10 +15305,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="F393" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -15391,10 +15334,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="F394" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15420,10 +15363,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="F395" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -15449,10 +15392,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="F396" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -15478,10 +15421,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="F397" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15507,10 +15450,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="F398" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15536,10 +15479,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F399" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15565,10 +15508,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="F400" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15594,10 +15537,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="F401" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15623,10 +15566,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F402" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15652,10 +15595,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="F403" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15681,10 +15624,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="F404" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15710,10 +15653,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="F405" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15739,10 +15682,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="F406" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15768,10 +15711,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="F407" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15797,10 +15740,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="F408" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15826,10 +15769,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="F409" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15855,10 +15798,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="F410" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15884,10 +15827,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="F411" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15913,10 +15856,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="F412" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15942,10 +15885,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="F413" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15971,10 +15914,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="F414" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -16000,10 +15943,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="F415" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16029,10 +15972,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="F416" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16058,10 +16001,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="F417" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16087,10 +16030,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F418" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16116,10 +16059,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="F419" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16145,10 +16088,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="F420" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16174,10 +16117,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F421" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16203,10 +16146,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="F422" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16232,10 +16175,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="F423" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16261,10 +16204,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="F424" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16290,10 +16233,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="F425" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16319,10 +16262,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="F426" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16348,10 +16291,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="F427" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16377,10 +16320,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F428" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16406,10 +16349,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="F429" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -16435,10 +16378,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="F430" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16464,10 +16407,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="F431" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16493,10 +16436,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="F432" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16522,10 +16465,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="F433" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16551,10 +16494,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="F434" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16580,10 +16523,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="F435" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16609,10 +16552,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="F436" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16638,10 +16581,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F437" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16667,10 +16610,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F438" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16696,10 +16639,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F439" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16725,10 +16668,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F440" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16754,10 +16697,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="F441" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16783,10 +16726,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="F442" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16812,10 +16755,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F443" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16841,10 +16784,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="F444" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16870,10 +16813,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="F445" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16899,10 +16842,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="F446" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16928,10 +16871,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F447" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16957,10 +16900,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="F448" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16986,10 +16929,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F449" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17015,10 +16958,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F450" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17044,10 +16987,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="F451" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17073,10 +17016,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="F452" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17102,10 +17045,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="F453" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17131,10 +17074,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="F454" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17160,10 +17103,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="F455" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17189,10 +17132,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="F456" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17218,10 +17161,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="F457" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17247,10 +17190,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="F458" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17276,10 +17219,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="F459" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17305,10 +17248,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="F460" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17334,10 +17277,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="F461" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17363,10 +17306,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="F462" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17392,10 +17335,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="F463" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17421,10 +17364,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="F464" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17450,10 +17393,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="F465" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17479,10 +17422,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="F466" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17508,10 +17451,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="F467" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17537,10 +17480,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="F468" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17566,10 +17509,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="F469" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17595,10 +17538,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="F470" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17624,10 +17567,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="F471" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17653,10 +17596,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="F472" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17682,10 +17625,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="F473" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17711,10 +17654,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="F474" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17740,10 +17683,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="F475" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17769,10 +17712,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="F476" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17798,10 +17741,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="F477" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17827,10 +17770,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="F478" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17856,10 +17799,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="F479" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17885,10 +17828,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="F480" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17914,10 +17857,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="F481" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="G481" t="n">
         <v>3</v>
@@ -17943,10 +17886,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="F482" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17972,10 +17915,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="F483" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18001,10 +17944,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="F484" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18030,10 +17973,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="F485" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18059,10 +18002,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="F486" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18088,10 +18031,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="F487" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18117,10 +18060,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="F488" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18146,10 +18089,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="F489" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18175,10 +18118,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="F490" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18204,10 +18147,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="F491" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18233,10 +18176,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="F492" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18262,10 +18205,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="F493" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18291,10 +18234,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="F494" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18320,10 +18263,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="F495" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18349,10 +18292,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="F496" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18378,10 +18321,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="F497" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18407,10 +18350,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="F498" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18436,10 +18379,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="F499" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18465,10 +18408,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="F500" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18494,10 +18437,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="F501" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18523,10 +18466,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="F502" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18552,10 +18495,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="F503" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -18581,10 +18524,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="F504" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18610,10 +18553,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="F505" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18639,10 +18582,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F506" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18668,10 +18611,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="F507" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18697,10 +18640,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="F508" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18726,10 +18669,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F509" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18755,10 +18698,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="F510" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18784,10 +18727,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="F511" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18813,10 +18756,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="F512" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18842,10 +18785,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="F513" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18871,10 +18814,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="F514" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18900,10 +18843,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="F515" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18929,10 +18872,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="F516" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18958,10 +18901,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="F517" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18987,10 +18930,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="F518" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19016,10 +18959,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="F519" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19045,10 +18988,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="F520" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19074,10 +19017,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="F521" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19103,10 +19046,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="F522" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19132,10 +19075,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="F523" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19161,10 +19104,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="F524" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19190,10 +19133,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="F525" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19219,10 +19162,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="F526" t="s">
-        <v>948</v>
+        <v>537</v>
       </c>
       <c r="G526" t="n">
         <v>2</v>
@@ -19248,10 +19191,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="F527" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="G527" t="n">
         <v>2</v>
@@ -19277,10 +19220,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="F528" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19306,10 +19249,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="F529" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19335,10 +19278,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="F530" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19364,10 +19307,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="F531" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19393,10 +19336,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="F532" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19422,10 +19365,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="F533" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19451,10 +19394,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>963</v>
+        <v>945</v>
       </c>
       <c r="F534" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19480,10 +19423,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="F535" t="s">
-        <v>966</v>
+        <v>948</v>
       </c>
       <c r="G535" t="n">
         <v>4</v>
@@ -19509,10 +19452,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>967</v>
+        <v>949</v>
       </c>
       <c r="F536" t="s">
-        <v>968</v>
+        <v>950</v>
       </c>
       <c r="G536" t="n">
         <v>2</v>
@@ -19538,10 +19481,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>969</v>
+        <v>951</v>
       </c>
       <c r="F537" t="s">
-        <v>970</v>
+        <v>952</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19567,10 +19510,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="F538" t="s">
-        <v>972</v>
+        <v>954</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19596,10 +19539,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>973</v>
+        <v>955</v>
       </c>
       <c r="F539" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19625,10 +19568,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F540" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19654,10 +19597,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>975</v>
+        <v>957</v>
       </c>
       <c r="F541" t="s">
-        <v>976</v>
+        <v>958</v>
       </c>
       <c r="G541" t="n">
         <v>2</v>
@@ -19683,10 +19626,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>977</v>
+        <v>959</v>
       </c>
       <c r="F542" t="s">
-        <v>978</v>
+        <v>960</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19712,10 +19655,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>979</v>
+        <v>961</v>
       </c>
       <c r="F543" t="s">
-        <v>980</v>
+        <v>962</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19741,10 +19684,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>981</v>
+        <v>963</v>
       </c>
       <c r="F544" t="s">
-        <v>982</v>
+        <v>964</v>
       </c>
       <c r="G544" t="n">
         <v>9</v>
@@ -19770,10 +19713,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>983</v>
+        <v>965</v>
       </c>
       <c r="F545" t="s">
-        <v>984</v>
+        <v>966</v>
       </c>
       <c r="G545" t="n">
         <v>15</v>
@@ -19799,10 +19742,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
       <c r="F546" t="s">
-        <v>986</v>
+        <v>968</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19828,10 +19771,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>987</v>
+        <v>969</v>
       </c>
       <c r="F547" t="s">
-        <v>988</v>
+        <v>970</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19857,10 +19800,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>989</v>
+        <v>971</v>
       </c>
       <c r="F548" t="s">
-        <v>990</v>
+        <v>972</v>
       </c>
       <c r="G548" t="n">
         <v>2</v>
@@ -19886,10 +19829,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
       <c r="F549" t="s">
-        <v>992</v>
+        <v>974</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19915,10 +19858,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>993</v>
+        <v>975</v>
       </c>
       <c r="F550" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19944,10 +19887,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="F551" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="G551" t="n">
         <v>2</v>
@@ -19973,10 +19916,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="F552" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="G552" t="n">
         <v>6</v>
@@ -20002,10 +19945,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="F553" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20031,10 +19974,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="F554" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="G554" t="n">
         <v>2</v>
@@ -20060,10 +20003,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="F555" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20089,10 +20032,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="F556" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="G556" t="n">
         <v>3</v>
@@ -20118,10 +20061,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="F557" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20147,10 +20090,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="F558" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20176,10 +20119,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
       <c r="F559" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20205,10 +20148,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="F560" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20234,10 +20177,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="F561" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20263,10 +20206,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="F562" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20292,10 +20235,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="F563" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="G563" t="n">
         <v>4</v>
@@ -20321,10 +20264,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="F564" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="G564" t="n">
         <v>2</v>
@@ -20350,10 +20293,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="F565" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20379,10 +20322,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="F566" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="G566" t="n">
         <v>2</v>
@@ -20408,10 +20351,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="F567" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20437,10 +20380,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
       <c r="F568" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20466,10 +20409,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="F569" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20495,10 +20438,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="F570" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20524,10 +20467,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="F571" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20553,10 +20496,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="F572" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20582,10 +20525,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="F573" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20611,10 +20554,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="F574" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20640,10 +20583,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="F575" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -20669,10 +20612,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="F576" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20698,10 +20641,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="F577" t="s">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="G577" t="n">
         <v>2</v>
@@ -20727,10 +20670,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="F578" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20756,10 +20699,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="F579" t="s">
-        <v>1052</v>
+        <v>1026</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20785,10 +20728,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="F580" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20814,10 +20757,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="F581" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20843,10 +20786,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="F582" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20872,10 +20815,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="F583" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20901,10 +20844,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="F584" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20930,10 +20873,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="F585" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20959,10 +20902,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="F586" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20988,10 +20931,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="F587" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21017,10 +20960,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="F588" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21046,10 +20989,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="F589" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21075,10 +21018,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="F590" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21104,10 +21047,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="F591" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21133,10 +21076,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F592" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21162,10 +21105,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="F593" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21191,10 +21134,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="F594" t="s">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21220,10 +21163,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="F595" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21249,10 +21192,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="F596" t="s">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21278,10 +21221,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="F597" t="s">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21307,10 +21250,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="F598" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="G598" t="n">
         <v>4</v>
@@ -21336,10 +21279,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="F599" t="s">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21365,10 +21308,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="F600" t="s">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21394,10 +21337,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="F601" t="s">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21423,10 +21366,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="F602" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21452,10 +21395,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="F603" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="G603" t="n">
         <v>2</v>
@@ -21481,10 +21424,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="F604" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21510,10 +21453,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="F605" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21539,10 +21482,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="F606" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21568,10 +21511,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="F607" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21597,10 +21540,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="F608" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21626,10 +21569,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="F609" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21655,10 +21598,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F610" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21684,10 +21627,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="F611" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21713,10 +21656,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="F612" t="s">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21742,10 +21685,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="F613" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21771,10 +21714,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1117</v>
+        <v>1098</v>
       </c>
       <c r="F614" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="G614" t="n">
         <v>9</v>
@@ -21800,10 +21743,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="F615" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21829,10 +21772,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="F616" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21858,10 +21801,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="F617" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21887,10 +21830,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="F618" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21916,10 +21859,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="F619" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -21945,10 +21888,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="F620" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21974,10 +21917,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="F621" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22003,10 +21946,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="F622" t="s">
-        <v>1134</v>
+        <v>1115</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22032,10 +21975,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
       <c r="F623" t="s">
-        <v>1136</v>
+        <v>1117</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22061,10 +22004,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="F624" t="s">
-        <v>1138</v>
+        <v>1119</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22090,10 +22033,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
       <c r="F625" t="s">
-        <v>1140</v>
+        <v>1121</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22119,10 +22062,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1141</v>
+        <v>1122</v>
       </c>
       <c r="F626" t="s">
-        <v>1142</v>
+        <v>1123</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22148,10 +22091,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1143</v>
+        <v>1124</v>
       </c>
       <c r="F627" t="s">
-        <v>1144</v>
+        <v>1125</v>
       </c>
       <c r="G627" t="n">
         <v>3</v>
@@ -22177,10 +22120,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1145</v>
+        <v>1126</v>
       </c>
       <c r="F628" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="G628" t="n">
         <v>3</v>
@@ -22206,10 +22149,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="F629" t="s">
-        <v>1148</v>
+        <v>1129</v>
       </c>
       <c r="G629" t="n">
         <v>2</v>
@@ -22235,10 +22178,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1149</v>
+        <v>1130</v>
       </c>
       <c r="F630" t="s">
-        <v>1150</v>
+        <v>1131</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22264,10 +22207,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="F631" t="s">
-        <v>1152</v>
+        <v>1133</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22293,10 +22236,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1153</v>
+        <v>1134</v>
       </c>
       <c r="F632" t="s">
-        <v>1154</v>
+        <v>1135</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22322,10 +22265,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1155</v>
+        <v>1136</v>
       </c>
       <c r="F633" t="s">
-        <v>1156</v>
+        <v>1137</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22351,10 +22294,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1157</v>
+        <v>1138</v>
       </c>
       <c r="F634" t="s">
-        <v>1158</v>
+        <v>1139</v>
       </c>
       <c r="G634" t="n">
         <v>2</v>
@@ -22380,10 +22323,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1159</v>
+        <v>1140</v>
       </c>
       <c r="F635" t="s">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22409,10 +22352,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F636" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22438,10 +22381,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1161</v>
+        <v>1142</v>
       </c>
       <c r="F637" t="s">
-        <v>1162</v>
+        <v>1143</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22467,10 +22410,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1163</v>
+        <v>1144</v>
       </c>
       <c r="F638" t="s">
-        <v>1164</v>
+        <v>1145</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22496,10 +22439,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="F639" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="G639" t="n">
         <v>2</v>
@@ -22525,10 +22468,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1167</v>
+        <v>1148</v>
       </c>
       <c r="F640" t="s">
-        <v>1168</v>
+        <v>1149</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22554,10 +22497,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1169</v>
+        <v>1150</v>
       </c>
       <c r="F641" t="s">
-        <v>1170</v>
+        <v>1151</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22583,10 +22526,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1171</v>
+        <v>1152</v>
       </c>
       <c r="F642" t="s">
-        <v>1172</v>
+        <v>1153</v>
       </c>
       <c r="G642" t="n">
         <v>3</v>
@@ -22612,10 +22555,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="F643" t="s">
-        <v>1174</v>
+        <v>1155</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22641,10 +22584,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1175</v>
+        <v>1156</v>
       </c>
       <c r="F644" t="s">
-        <v>1176</v>
+        <v>1157</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22670,10 +22613,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1177</v>
+        <v>1158</v>
       </c>
       <c r="F645" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22699,10 +22642,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1179</v>
+        <v>1160</v>
       </c>
       <c r="F646" t="s">
-        <v>1180</v>
+        <v>1161</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22728,10 +22671,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1181</v>
+        <v>1162</v>
       </c>
       <c r="F647" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22757,10 +22700,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1183</v>
+        <v>1164</v>
       </c>
       <c r="F648" t="s">
-        <v>1184</v>
+        <v>1165</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22786,10 +22729,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="F649" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22815,10 +22758,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1185</v>
+        <v>1166</v>
       </c>
       <c r="F650" t="s">
-        <v>1186</v>
+        <v>1167</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -22844,10 +22787,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
       <c r="F651" t="s">
-        <v>1188</v>
+        <v>1169</v>
       </c>
       <c r="G651" t="n">
         <v>3</v>
@@ -22873,10 +22816,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1189</v>
+        <v>1170</v>
       </c>
       <c r="F652" t="s">
-        <v>1190</v>
+        <v>1171</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -22902,10 +22845,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1191</v>
+        <v>1172</v>
       </c>
       <c r="F653" t="s">
-        <v>1192</v>
+        <v>1173</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -22931,10 +22874,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1193</v>
+        <v>1174</v>
       </c>
       <c r="F654" t="s">
-        <v>1194</v>
+        <v>1175</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -22960,10 +22903,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1195</v>
+        <v>1176</v>
       </c>
       <c r="F655" t="s">
-        <v>1196</v>
+        <v>1177</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -22989,10 +22932,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1197</v>
+        <v>1178</v>
       </c>
       <c r="F656" t="s">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23018,10 +22961,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1199</v>
+        <v>1180</v>
       </c>
       <c r="F657" t="s">
-        <v>1200</v>
+        <v>1181</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23047,10 +22990,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="F658" t="s">
-        <v>1202</v>
+        <v>1183</v>
       </c>
       <c r="G658" t="n">
         <v>16</v>
@@ -23076,10 +23019,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="F659" t="s">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
